--- a/MarchStateClust_cv19.06.08.xlsx
+++ b/MarchStateClust_cv19.06.08.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faithfatchen/Dropbox/My Mac (Faith’s MacBook Pro)/Documents/Guo_Summer21/covid_clust/CleanData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faithfatchen/Dropbox/My Mac (Faith’s MacBook Pro)/Documents/GuoCovidData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A597B-56BE-3C4C-B086-636B1173980C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853173B3-4A27-624F-93FF-083CA958DB01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{602E723F-09E6-434A-AB9C-FF09EAC1B347}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16740" xr2:uid="{602E723F-09E6-434A-AB9C-FF09EAC1B347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
   <si>
     <t>State</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ventilators in use by COVID-19 patient - absolute change</t>
+  </si>
+  <si>
+    <t>People who are fully vaccinated as % of total population</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,6 +673,10 @@
     <xf numFmtId="2" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,15 +991,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD38A8CE-6A98-9C4A-85F2-ABA8C344D15F}">
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="37" max="37" width="10.83203125" style="17"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="98" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,8 +1111,11 @@
       <c r="AJ1" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="AK1" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1211,8 +1224,11 @@
       <c r="AJ2" s="9">
         <v>547257</v>
       </c>
+      <c r="AK2" s="9">
+        <v>0.1116125538807938</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1321,8 +1337,11 @@
       <c r="AJ3" s="9">
         <v>140169</v>
       </c>
+      <c r="AK3" s="9">
+        <v>0.19160680477619291</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -1431,8 +1450,11 @@
       <c r="AJ4" s="9">
         <v>981650</v>
       </c>
+      <c r="AK4" s="9">
+        <v>0.13486580121194441</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1541,8 +1563,11 @@
       <c r="AJ5" s="9">
         <v>330804</v>
       </c>
+      <c r="AK5" s="9">
+        <v>0.1096174569322594</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -1651,8 +1676,11 @@
       <c r="AJ6" s="9">
         <v>4644718</v>
       </c>
+      <c r="AK6" s="9">
+        <v>0.1175514219992127</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1761,8 +1789,11 @@
       <c r="AJ7" s="9">
         <v>782902</v>
       </c>
+      <c r="AK7" s="9">
+        <v>0.13595031965347951</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -1871,8 +1902,11 @@
       <c r="AJ8" s="9">
         <v>559558</v>
       </c>
+      <c r="AK8" s="9">
+        <v>0.15694613084444531</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -1981,8 +2015,11 @@
       <c r="AJ9" s="9">
         <v>127182</v>
       </c>
+      <c r="AK9" s="9">
+        <v>0.1306086485021011</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -2091,8 +2128,11 @@
       <c r="AJ10" s="9">
         <v>71181</v>
       </c>
+      <c r="AK10" s="9">
+        <v>0.10085880390903849</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -2201,8 +2241,11 @@
       <c r="AJ11" s="9">
         <v>2691206</v>
       </c>
+      <c r="AK11" s="9">
+        <v>0.12530212098229901</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -2311,8 +2354,11 @@
       <c r="AJ12" s="9">
         <v>1084493</v>
       </c>
+      <c r="AK12" s="9">
+        <v>0.10214277042555429</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -2421,8 +2467,11 @@
       <c r="AJ13" s="9">
         <v>224113</v>
       </c>
+      <c r="AK13" s="9">
+        <v>0.15828620101252089</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
@@ -2531,8 +2580,11 @@
       <c r="AJ14" s="9">
         <v>231173</v>
       </c>
+      <c r="AK14" s="9">
+        <v>0.12935903282756919</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
@@ -2641,8 +2693,11 @@
       <c r="AJ15" s="9">
         <v>1678369</v>
       </c>
+      <c r="AK15" s="9">
+        <v>0.1324489195357163</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
@@ -2751,8 +2806,11 @@
       <c r="AJ16" s="9">
         <v>913463</v>
       </c>
+      <c r="AK16" s="9">
+        <v>0.13568527702381639</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>62</v>
       </c>
@@ -2861,8 +2919,11 @@
       <c r="AJ17" s="9">
         <v>464445</v>
       </c>
+      <c r="AK17" s="9">
+        <v>0.14720592570053909</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2971,8 +3032,11 @@
       <c r="AJ18" s="9">
         <v>361435</v>
       </c>
+      <c r="AK18" s="9">
+        <v>0.1240631802819744</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>67</v>
       </c>
@@ -3081,8 +3145,11 @@
       <c r="AJ19" s="9">
         <v>589338</v>
       </c>
+      <c r="AK19" s="9">
+        <v>0.13191162379162491</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
@@ -3191,8 +3258,11 @@
       <c r="AJ20" s="9">
         <v>588561</v>
       </c>
+      <c r="AK20" s="9">
+        <v>0.12660509370817469</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>71</v>
       </c>
@@ -3301,8 +3371,11 @@
       <c r="AJ21" s="9">
         <v>204927</v>
       </c>
+      <c r="AK21" s="9">
+        <v>0.15245139903527119</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>73</v>
       </c>
@@ -3411,8 +3484,11 @@
       <c r="AJ22" s="9">
         <v>812403</v>
       </c>
+      <c r="AK22" s="9">
+        <v>0.13437743975863761</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>75</v>
       </c>
@@ -3521,8 +3597,11 @@
       <c r="AJ23" s="9">
         <v>994623</v>
       </c>
+      <c r="AK23" s="9">
+        <v>0.14430505144502659</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>77</v>
       </c>
@@ -3631,8 +3710,11 @@
       <c r="AJ24" s="9">
         <v>1282070</v>
       </c>
+      <c r="AK24" s="9">
+        <v>0.12837572421433491</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>79</v>
       </c>
@@ -3741,8 +3823,11 @@
       <c r="AJ25" s="9">
         <v>803611</v>
       </c>
+      <c r="AK25" s="9">
+        <v>0.14249351730751231</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
@@ -3851,8 +3936,11 @@
       <c r="AJ26" s="9">
         <v>345733</v>
       </c>
+      <c r="AK26" s="9">
+        <v>0.11616790691595071</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
@@ -3961,8 +4049,11 @@
       <c r="AJ27" s="9">
         <v>697962</v>
       </c>
+      <c r="AK27" s="9">
+        <v>0.11372223022412641</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>85</v>
       </c>
@@ -4071,8 +4162,11 @@
       <c r="AJ28" s="9">
         <v>160293</v>
       </c>
+      <c r="AK28" s="9">
+        <v>0.14997782514235891</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>87</v>
       </c>
@@ -4181,8 +4275,11 @@
       <c r="AJ29" s="9">
         <v>286226</v>
       </c>
+      <c r="AK29" s="9">
+        <v>0.14796568252405909</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>89</v>
       </c>
@@ -4291,8 +4388,11 @@
       <c r="AJ30" s="9">
         <v>386703</v>
       </c>
+      <c r="AK30" s="9">
+        <v>0.12554656322601851</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>91</v>
       </c>
@@ -4401,8 +4501,11 @@
       <c r="AJ31" s="9">
         <v>172604</v>
       </c>
+      <c r="AK31" s="9">
+        <v>0.12694168098956321</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>93</v>
       </c>
@@ -4511,8 +4614,11 @@
       <c r="AJ32" s="9">
         <v>1227118</v>
       </c>
+      <c r="AK32" s="9">
+        <v>0.13815489198046879</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>96</v>
       </c>
@@ -4621,8 +4727,11 @@
       <c r="AJ33" s="9">
         <v>390600</v>
       </c>
+      <c r="AK33" s="9">
+        <v>0.18628128473995731</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>98</v>
       </c>
@@ -4731,8 +4840,11 @@
       <c r="AJ34" s="9">
         <v>2310782</v>
       </c>
+      <c r="AK34" s="9">
+        <v>0.11878452484868959</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>100</v>
       </c>
@@ -4841,8 +4953,11 @@
       <c r="AJ35" s="9">
         <v>1383634</v>
       </c>
+      <c r="AK35" s="9">
+        <v>0.13192438199388951</v>
+      </c>
     </row>
-    <row r="36" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>102</v>
       </c>
@@ -4951,8 +5066,11 @@
       <c r="AJ36" s="9">
         <v>120838</v>
       </c>
+      <c r="AK36" s="9">
+        <v>0.15856715070427341</v>
+      </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>104</v>
       </c>
@@ -5061,8 +5179,11 @@
       <c r="AJ37" s="9">
         <v>1538853</v>
       </c>
+      <c r="AK37" s="9">
+        <v>0.13164854437039639</v>
+      </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>106</v>
       </c>
@@ -5171,8 +5292,11 @@
       <c r="AJ38" s="9">
         <v>550979</v>
       </c>
+      <c r="AK38" s="9">
+        <v>0.13924261764870149</v>
+      </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>108</v>
       </c>
@@ -5281,8 +5405,11 @@
       <c r="AJ39" s="9">
         <v>548689</v>
       </c>
+      <c r="AK39" s="9">
+        <v>0.13009085203747889</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>110</v>
       </c>
@@ -5391,8 +5518,11 @@
       <c r="AJ40" s="9">
         <v>1587925</v>
       </c>
+      <c r="AK40" s="9">
+        <v>0.12403736638111471</v>
+      </c>
     </row>
-    <row r="41" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>112</v>
       </c>
@@ -5501,8 +5631,11 @@
       <c r="AJ41" s="9">
         <v>138714</v>
       </c>
+      <c r="AK41" s="9">
+        <v>0.13094119945891911</v>
+      </c>
     </row>
-    <row r="42" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
@@ -5611,8 +5744,11 @@
       <c r="AJ42" s="9">
         <v>621862</v>
       </c>
+      <c r="AK42" s="9">
+        <v>0.1207800627496497</v>
+      </c>
     </row>
-    <row r="43" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>116</v>
       </c>
@@ -5721,8 +5857,11 @@
       <c r="AJ43" s="9">
         <v>152321</v>
       </c>
+      <c r="AK43" s="9">
+        <v>0.17218046727609171</v>
+      </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>118</v>
       </c>
@@ -5831,8 +5970,11 @@
       <c r="AJ44" s="9">
         <v>716719</v>
       </c>
+      <c r="AK44" s="9">
+        <v>0.1049495883396733</v>
+      </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>120</v>
       </c>
@@ -5941,8 +6083,11 @@
       <c r="AJ45" s="9">
         <v>3031660</v>
       </c>
+      <c r="AK45" s="9">
+        <v>0.10455485039409559</v>
+      </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>122</v>
       </c>
@@ -6051,8 +6196,11 @@
       <c r="AJ46" s="9">
         <v>286744</v>
       </c>
+      <c r="AK46" s="9">
+        <v>8.9440972090089763E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>124</v>
       </c>
@@ -6161,8 +6309,11 @@
       <c r="AJ47" s="9">
         <v>88186</v>
       </c>
+      <c r="AK47" s="9">
+        <v>0.14132620927612499</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>126</v>
       </c>
@@ -6271,8 +6422,11 @@
       <c r="AJ48" s="9">
         <v>1159848</v>
       </c>
+      <c r="AK48" s="9">
+        <v>0.13588488292276071</v>
+      </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>128</v>
       </c>
@@ -6381,8 +6535,11 @@
       <c r="AJ49" s="9">
         <v>1038120</v>
       </c>
+      <c r="AK49" s="9">
+        <v>0.1363275885820063</v>
+      </c>
     </row>
-    <row r="50" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>130</v>
       </c>
@@ -6491,8 +6648,11 @@
       <c r="AJ50" s="9">
         <v>276506</v>
       </c>
+      <c r="AK50" s="9">
+        <v>0.15428756681232059</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>132</v>
       </c>
@@ -6601,8 +6761,11 @@
       <c r="AJ51" s="9">
         <v>831136</v>
       </c>
+      <c r="AK51" s="9">
+        <v>0.14274717411996429</v>
+      </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>134</v>
       </c>
@@ -6710,6 +6873,9 @@
       </c>
       <c r="AJ52" s="9">
         <v>84990</v>
+      </c>
+      <c r="AK52" s="9">
+        <v>0.1468486883141342</v>
       </c>
     </row>
   </sheetData>
